--- a/CS7641-02/results.xlsx
+++ b/CS7641-02/results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Optimization Problems" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="30">
   <si>
     <t>RHC</t>
   </si>
@@ -92,11 +93,32 @@
   <si>
     <t>Median</t>
   </si>
+  <si>
+    <t>opt.example.CountOnesEvaluationFunction</t>
+  </si>
+  <si>
+    <t>opt.example.FlipFlopEvaluationFunction</t>
+  </si>
+  <si>
+    <t>opt.example.FourPeaksEvaluationFunction</t>
+  </si>
+  <si>
+    <t>opt.example.ContinuousPeaksEvaluationFunction</t>
+  </si>
+  <si>
+    <t>opt.example.KnapsackEvaluationFunction</t>
+  </si>
+  <si>
+    <t>Knapsack</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -162,9 +184,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -191,7 +214,291 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Optimization Problems'!$N$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Optimization Problems'!$N$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3367.94865048459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3558.1732306755798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3438.006363602025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Optimization Problems'!$N$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Optimization Problems'!$N$19:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3433.5381038395599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3610.6038466923901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3514.6589612008752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Optimization Problems'!$N$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Optimization Problems'!$N$20:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3628.7680063490202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3766.51635526992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3731.8966287570947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Optimization Problems'!$N$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Optimization Problems'!$N$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3725.3961438791198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3894.1117742286001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3792.5163648440048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="92712320"/>
+        <c:axId val="92714112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="92712320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92714112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92714112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92712320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,20 +823,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F36"/>
+      <selection activeCell="N18" sqref="N18:P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -579,1201 +886,2249 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="F2">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="H2">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="I2">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="K2">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="L2">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="M2" s="1">
-        <v>1.6400462962962965E-5</v>
+        <v>5.8599537037037025E-5</v>
       </c>
       <c r="N2">
         <f>MIN(C2:L2)</f>
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="O2">
         <f>MAX(C2:L2)</f>
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="P2">
         <f>MEDIAN(C2:L2)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="E3">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F3">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="H3">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="I3">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="J3">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="K3">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="L3">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="M3" s="1">
-        <v>2.1423611111111112E-5</v>
+        <v>7.1481481481481491E-5</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N17" si="0">MIN(C3:L3)</f>
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O17" si="1">MAX(C3:L3)</f>
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P17" si="2">MEDIAN(C3:L3)</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="D4">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="E4">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="F4">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="G4">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="I4">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="J4">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="K4">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="L4">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="M4" s="1">
-        <v>1.7523148148148149E-5</v>
+        <v>4.130787037037037E-5</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="D5">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="E5">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="F5">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="H5">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="I5">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="J5">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="K5">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="M5" s="1">
-        <v>7.4077546296296305E-4</v>
+        <v>2.5654166666666668E-3</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F6">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H6">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I6">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J6">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K6">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L6">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="M6" s="1">
-        <v>1.4004629629629628E-5</v>
+        <v>3.0335648148148146E-5</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D7">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="E7">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="F7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="H7">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I7">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L7">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M7" s="1">
-        <v>1.722222222222222E-5</v>
+        <v>4.2372685185185188E-5</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>115.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D8">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E8">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F8">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="G8">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="H8">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="I8">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="J8">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K8">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L8">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="M8" s="1">
-        <v>1.5983796296296299E-5</v>
+        <v>2.3622685185185186E-5</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="P8">
         <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E9">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="F9">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G9">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="H9">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="I9">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="J9">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="K9">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="L9">
         <v>73</v>
       </c>
       <c r="M9" s="1">
-        <v>7.4490740740740735E-4</v>
+        <v>5.846527777777778E-4</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="P9">
         <f t="shared" si="2"/>
-        <v>136.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H10">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I10">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K10">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M10" s="1">
-        <v>1.3969907407407409E-5</v>
+        <v>1.8946759259259259E-5</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="E11">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="F11">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G11">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="I11">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="J11">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L11">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="M11" s="1">
-        <v>1.8402777777777778E-5</v>
+        <v>3.1678240740740742E-5</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E12">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F12">
+        <v>99</v>
+      </c>
+      <c r="G12">
+        <v>118</v>
+      </c>
+      <c r="H12">
+        <v>97</v>
+      </c>
+      <c r="I12">
         <v>93</v>
       </c>
-      <c r="G12">
-        <v>88</v>
-      </c>
-      <c r="H12">
-        <v>84</v>
-      </c>
-      <c r="I12">
-        <v>84</v>
-      </c>
       <c r="J12">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="K12">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="L12">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M12" s="1">
-        <v>1.8773148148148149E-5</v>
+        <v>1.5196759259259258E-5</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E13">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="F13">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="G13">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="H13">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="I13">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="J13">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="L13">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="M13" s="1">
-        <v>4.6652777777777773E-4</v>
+        <v>5.7476851851851851E-4</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="P13">
         <f t="shared" si="2"/>
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D14">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E14">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="F14">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G14">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H14">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="I14">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J14">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="K14">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="L14">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="M14" s="1">
-        <v>1.1666666666666666E-5</v>
+        <v>3.1550925925925926E-5</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F15">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G15">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="H15">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I15">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="J15">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K15">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="L15">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M15" s="1">
-        <v>1.6574074074074075E-5</v>
+        <v>4.4629629629629625E-5</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D16">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E16">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F16">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G16">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="H16">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="I16">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J16">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="K16">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="L16">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M16" s="1">
-        <v>1.5995370370370375E-5</v>
+        <v>2.5810185185185188E-5</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="F17">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="I17">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="J17">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="K17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L17">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="M17" s="1">
-        <v>4.6517361111111114E-4</v>
+        <v>3.8777777777777774E-4</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3421.0257084731502</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3506.8271327072098</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3367.94865048459</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3476.6499650573801</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3383.9607022142</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3435.5243636231098</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3440.4883635809401</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3558.1732306755798</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3391.48456904042</v>
+      </c>
+      <c r="L18" s="2">
+        <v>3537.0485516650001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.7893518518518517E-5</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" ref="N18:N21" si="3">MIN(C18:L18)</f>
+        <v>3367.94865048459</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" ref="O18:O21" si="4">MAX(C18:L18)</f>
+        <v>3558.1732306755798</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" ref="P18:P21" si="5">MEDIAN(C18:L18)</f>
+        <v>3438.006363602025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3537.7658666448501</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3610.6038466923901</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3433.5381038395599</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3504.68150612</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3582.0198448372598</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3523.4943959870602</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3547.2153543110599</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3505.1454366489502</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3497.9643710217701</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3505.8235264146901</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3.7106481481481482E-5</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="3"/>
+        <v>3433.5381038395599</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="4"/>
+        <v>3610.6038466923901</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="5"/>
+        <v>3514.6589612008752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3732.11795580232</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3726.5349694891702</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3749.8841585103601</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3731.6753017118699</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3764.44369425076</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3766.51635526992</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3631.6457370032299</v>
+      </c>
+      <c r="J20" s="2">
+        <v>3655.2742374081699</v>
+      </c>
+      <c r="K20" s="2">
+        <v>3628.7680063490202</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3757.5812037529699</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1.6342592592592595E-5</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="3"/>
+        <v>3628.7680063490202</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="4"/>
+        <v>3766.51635526992</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="5"/>
+        <v>3731.8966287570947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3754.88514422149</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3725.3961438791198</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3785.8309825157698</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3781.4694950527601</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3861.76699612623</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3775.77017069766</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3859.3436850716298</v>
+      </c>
+      <c r="J21" s="2">
+        <v>3894.1117742286001</v>
+      </c>
+      <c r="K21" s="2">
+        <v>3841.53439634713</v>
+      </c>
+      <c r="L21" s="2">
+        <v>3799.2017471722402</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2.729050925925926E-4</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="3"/>
+        <v>3725.3961438791198</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="4"/>
+        <v>3894.1117742286001</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="5"/>
+        <v>3792.5163648440048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.6400462962962965E-5</v>
-      </c>
-      <c r="D21">
-        <v>61</v>
-      </c>
-      <c r="E21">
-        <v>69</v>
-      </c>
-      <c r="F21">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2.1423611111111112E-5</v>
-      </c>
-      <c r="D22">
-        <v>78</v>
-      </c>
-      <c r="E22">
-        <v>79</v>
-      </c>
-      <c r="F22">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.7523148148148149E-5</v>
-      </c>
-      <c r="D23">
-        <v>65</v>
-      </c>
-      <c r="E23">
-        <v>74</v>
-      </c>
-      <c r="F23">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1">
-        <v>7.4077546296296305E-4</v>
-      </c>
-      <c r="D24">
-        <v>69</v>
-      </c>
-      <c r="E24">
-        <v>76</v>
-      </c>
-      <c r="F24">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" t="s">
-        <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>1.4004629629629628E-5</v>
+        <v>1.6400462962962965E-5</v>
       </c>
       <c r="D25">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E25">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F25">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>1.722222222222222E-5</v>
+        <v>2.1423611111111112E-5</v>
       </c>
       <c r="D26">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E26">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="F26">
-        <v>115.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>1.5983796296296299E-5</v>
+        <v>1.7523148148148149E-5</v>
       </c>
       <c r="D27">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E27">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="F27">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>7.4490740740740735E-4</v>
+        <v>7.4077546296296305E-4</v>
       </c>
       <c r="D28">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E28">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="F28">
-        <v>136.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>1.3969907407407409E-5</v>
+        <v>1.4004629629629628E-5</v>
       </c>
       <c r="D29">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E29">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F29">
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>1.8402777777777778E-5</v>
+        <v>1.722222222222222E-5</v>
       </c>
       <c r="D30">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E30">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="F30">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>1.8773148148148149E-5</v>
+        <v>1.5983796296296299E-5</v>
       </c>
       <c r="D31">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E31">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F31">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>4.6652777777777773E-4</v>
+        <v>7.4490740740740735E-4</v>
       </c>
       <c r="D32">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E32">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="F32">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>1.1666666666666666E-5</v>
+        <v>1.3969907407407409E-5</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E33">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="F33">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>1.6574074074074075E-5</v>
+        <v>1.8402777777777778E-5</v>
       </c>
       <c r="D34">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E34">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="F34">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>1.5995370370370375E-5</v>
+        <v>1.8773148148148149E-5</v>
       </c>
       <c r="D35">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E35">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F35">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="1">
+        <v>4.6652777777777773E-4</v>
+      </c>
+      <c r="D36">
+        <v>93</v>
+      </c>
+      <c r="E36">
+        <v>111</v>
+      </c>
+      <c r="F36">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.1666666666666666E-5</v>
+      </c>
+      <c r="D37">
+        <v>60</v>
+      </c>
+      <c r="E37">
+        <v>60</v>
+      </c>
+      <c r="F37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.6574074074074075E-5</v>
+      </c>
+      <c r="D38">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+      <c r="F38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.5995370370370375E-5</v>
+      </c>
+      <c r="D39">
+        <v>59</v>
+      </c>
+      <c r="E39">
+        <v>60</v>
+      </c>
+      <c r="F39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
         <v>4.6517361111111114E-4</v>
       </c>
-      <c r="D36">
+      <c r="D40">
         <v>60</v>
       </c>
-      <c r="E36">
+      <c r="E40">
         <v>60</v>
       </c>
-      <c r="F36">
+      <c r="F40">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B1:M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>200</v>
+      </c>
+      <c r="D1">
+        <v>200</v>
+      </c>
+      <c r="E1">
+        <v>200</v>
+      </c>
+      <c r="F1">
+        <v>200</v>
+      </c>
+      <c r="G1">
+        <v>200</v>
+      </c>
+      <c r="H1">
+        <v>200</v>
+      </c>
+      <c r="I1">
+        <v>200</v>
+      </c>
+      <c r="J1">
+        <v>200</v>
+      </c>
+      <c r="K1">
+        <v>200</v>
+      </c>
+      <c r="L1">
+        <v>200</v>
+      </c>
+      <c r="M1" s="1">
+        <v>5.8599537037037025E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+      <c r="J2">
+        <v>200</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
+      <c r="M2" s="1">
+        <v>7.1481481481481491E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>162</v>
+      </c>
+      <c r="E3">
+        <v>163</v>
+      </c>
+      <c r="F3">
+        <v>168</v>
+      </c>
+      <c r="G3">
+        <v>165</v>
+      </c>
+      <c r="H3">
+        <v>163</v>
+      </c>
+      <c r="I3">
+        <v>166</v>
+      </c>
+      <c r="J3">
+        <v>160</v>
+      </c>
+      <c r="K3">
+        <v>162</v>
+      </c>
+      <c r="L3">
+        <v>157</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4.130787037037037E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
+      <c r="J4">
+        <v>200</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <v>200</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.5654166666666668E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+      <c r="F5">
+        <v>61</v>
+      </c>
+      <c r="G5">
+        <v>69</v>
+      </c>
+      <c r="H5">
+        <v>67</v>
+      </c>
+      <c r="I5">
+        <v>67</v>
+      </c>
+      <c r="J5">
+        <v>62</v>
+      </c>
+      <c r="K5">
+        <v>65</v>
+      </c>
+      <c r="L5">
+        <v>62</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3.0335648148148146E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>79</v>
+      </c>
+      <c r="F6">
+        <v>79</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>78</v>
+      </c>
+      <c r="I6">
+        <v>79</v>
+      </c>
+      <c r="J6">
+        <v>79</v>
+      </c>
+      <c r="K6">
+        <v>79</v>
+      </c>
+      <c r="L6">
+        <v>78</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4.2372685185185188E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>73</v>
+      </c>
+      <c r="D7">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <v>71</v>
+      </c>
+      <c r="G7">
+        <v>71</v>
+      </c>
+      <c r="H7">
+        <v>71</v>
+      </c>
+      <c r="I7">
+        <v>70</v>
+      </c>
+      <c r="J7">
+        <v>70</v>
+      </c>
+      <c r="K7">
+        <v>71</v>
+      </c>
+      <c r="L7">
+        <v>68</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.3622685185185186E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>71</v>
+      </c>
+      <c r="G8">
+        <v>73</v>
+      </c>
+      <c r="H8">
+        <v>73</v>
+      </c>
+      <c r="I8">
+        <v>74</v>
+      </c>
+      <c r="J8">
+        <v>73</v>
+      </c>
+      <c r="K8">
+        <v>72</v>
+      </c>
+      <c r="L8">
+        <v>73</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5.846527777777778E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>80</v>
+      </c>
+      <c r="K9">
+        <v>80</v>
+      </c>
+      <c r="L9">
+        <v>80</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.8946759259259259E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>151</v>
+      </c>
+      <c r="E10">
+        <v>151</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>151</v>
+      </c>
+      <c r="I10">
+        <v>80</v>
+      </c>
+      <c r="J10">
+        <v>80</v>
+      </c>
+      <c r="K10">
+        <v>80</v>
+      </c>
+      <c r="L10">
+        <v>151</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3.1678240740740742E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>110</v>
+      </c>
+      <c r="E11">
+        <v>104</v>
+      </c>
+      <c r="F11">
+        <v>99</v>
+      </c>
+      <c r="G11">
+        <v>118</v>
+      </c>
+      <c r="H11">
+        <v>97</v>
+      </c>
+      <c r="I11">
+        <v>93</v>
+      </c>
+      <c r="J11">
+        <v>99</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <v>92</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.5196759259259258E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>146</v>
+      </c>
+      <c r="G12">
+        <v>144</v>
+      </c>
+      <c r="H12">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>62</v>
+      </c>
+      <c r="J12">
+        <v>52</v>
+      </c>
+      <c r="K12">
+        <v>80</v>
+      </c>
+      <c r="L12">
+        <v>132</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5.7476851851851851E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>79</v>
+      </c>
+      <c r="E13">
+        <v>91</v>
+      </c>
+      <c r="F13">
+        <v>95</v>
+      </c>
+      <c r="G13">
+        <v>79</v>
+      </c>
+      <c r="H13">
+        <v>87</v>
+      </c>
+      <c r="I13">
+        <v>84</v>
+      </c>
+      <c r="J13">
+        <v>91</v>
+      </c>
+      <c r="K13">
+        <v>85</v>
+      </c>
+      <c r="L13">
+        <v>90</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3.1550925925925926E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <v>105</v>
+      </c>
+      <c r="E14">
+        <v>107</v>
+      </c>
+      <c r="F14">
+        <v>89</v>
+      </c>
+      <c r="G14">
+        <v>106</v>
+      </c>
+      <c r="H14">
+        <v>112</v>
+      </c>
+      <c r="I14">
+        <v>109</v>
+      </c>
+      <c r="J14">
+        <v>105</v>
+      </c>
+      <c r="K14">
+        <v>105</v>
+      </c>
+      <c r="L14">
+        <v>112</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4.4629629629629625E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>91</v>
+      </c>
+      <c r="D15">
+        <v>91</v>
+      </c>
+      <c r="E15">
+        <v>88</v>
+      </c>
+      <c r="F15">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <v>82</v>
+      </c>
+      <c r="I15">
+        <v>90</v>
+      </c>
+      <c r="J15">
+        <v>76</v>
+      </c>
+      <c r="K15">
+        <v>82</v>
+      </c>
+      <c r="L15">
+        <v>80</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2.5810185185185188E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+      <c r="D16">
+        <v>104</v>
+      </c>
+      <c r="E16">
+        <v>87</v>
+      </c>
+      <c r="F16">
+        <v>95</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>105</v>
+      </c>
+      <c r="I16">
+        <v>103</v>
+      </c>
+      <c r="J16">
+        <v>103</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>106</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3.8777777777777774E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3421.0257084731502</v>
+      </c>
+      <c r="D17">
+        <v>3506.8271327072098</v>
+      </c>
+      <c r="E17">
+        <v>3367.94865048459</v>
+      </c>
+      <c r="F17">
+        <v>3476.6499650573801</v>
+      </c>
+      <c r="G17">
+        <v>3383.9607022142</v>
+      </c>
+      <c r="H17">
+        <v>3435.5243636231098</v>
+      </c>
+      <c r="I17">
+        <v>3440.4883635809401</v>
+      </c>
+      <c r="J17">
+        <v>3558.1732306755798</v>
+      </c>
+      <c r="K17">
+        <v>3391.48456904042</v>
+      </c>
+      <c r="L17">
+        <v>3537.0485516650001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.7893518518518517E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3537.7658666448501</v>
+      </c>
+      <c r="D18">
+        <v>3610.6038466923901</v>
+      </c>
+      <c r="E18">
+        <v>3433.5381038395599</v>
+      </c>
+      <c r="F18">
+        <v>3504.68150612</v>
+      </c>
+      <c r="G18">
+        <v>3582.0198448372598</v>
+      </c>
+      <c r="H18">
+        <v>3523.4943959870602</v>
+      </c>
+      <c r="I18">
+        <v>3547.2153543110599</v>
+      </c>
+      <c r="J18">
+        <v>3505.1454366489502</v>
+      </c>
+      <c r="K18">
+        <v>3497.9643710217701</v>
+      </c>
+      <c r="L18">
+        <v>3505.8235264146901</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3.7106481481481482E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3732.11795580232</v>
+      </c>
+      <c r="D19">
+        <v>3726.5349694891702</v>
+      </c>
+      <c r="E19">
+        <v>3749.8841585103601</v>
+      </c>
+      <c r="F19">
+        <v>3731.6753017118699</v>
+      </c>
+      <c r="G19">
+        <v>3764.44369425076</v>
+      </c>
+      <c r="H19">
+        <v>3766.51635526992</v>
+      </c>
+      <c r="I19">
+        <v>3631.6457370032299</v>
+      </c>
+      <c r="J19">
+        <v>3655.2742374081699</v>
+      </c>
+      <c r="K19">
+        <v>3628.7680063490202</v>
+      </c>
+      <c r="L19">
+        <v>3757.5812037529699</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1.6342592592592595E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3754.88514422149</v>
+      </c>
+      <c r="D20">
+        <v>3725.3961438791198</v>
+      </c>
+      <c r="E20">
+        <v>3785.8309825157698</v>
+      </c>
+      <c r="F20">
+        <v>3781.4694950527601</v>
+      </c>
+      <c r="G20">
+        <v>3861.76699612623</v>
+      </c>
+      <c r="H20">
+        <v>3775.77017069766</v>
+      </c>
+      <c r="I20">
+        <v>3859.3436850716298</v>
+      </c>
+      <c r="J20">
+        <v>3894.1117742286001</v>
+      </c>
+      <c r="K20">
+        <v>3841.53439634713</v>
+      </c>
+      <c r="L20">
+        <v>3799.2017471722402</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2.729050925925926E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CS7641-02/results.xlsx
+++ b/CS7641-02/results.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Optimization Problems" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="30">
   <si>
     <t>RHC</t>
   </si>
@@ -117,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -187,7 +187,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -236,7 +236,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -246,10 +246,21 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Optimization Problems'!$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RHC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Optimization Problems'!$N$1:$P$1</c:f>
+              <c:f>'Optimization Problems'!$O$29:$Q$29</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -266,7 +277,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Optimization Problems'!$N$18:$P$18</c:f>
+              <c:f>'Optimization Problems'!$O$30:$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -286,10 +297,21 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Optimization Problems'!$N$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Optimization Problems'!$N$1:$P$1</c:f>
+              <c:f>'Optimization Problems'!$O$29:$Q$29</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -306,7 +328,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Optimization Problems'!$N$19:$P$19</c:f>
+              <c:f>'Optimization Problems'!$O$31:$Q$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -326,10 +348,21 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Optimization Problems'!$N$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Optimization Problems'!$N$1:$P$1</c:f>
+              <c:f>'Optimization Problems'!$O$29:$Q$29</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -346,7 +379,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Optimization Problems'!$N$20:$P$20</c:f>
+              <c:f>'Optimization Problems'!$O$32:$Q$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -366,10 +399,21 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Optimization Problems'!$N$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MIMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Optimization Problems'!$N$1:$P$1</c:f>
+              <c:f>'Optimization Problems'!$O$29:$Q$29</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -386,7 +430,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Optimization Problems'!$N$21:$P$21</c:f>
+              <c:f>'Optimization Problems'!$O$33:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -412,11 +456,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92712320"/>
-        <c:axId val="92714112"/>
+        <c:axId val="101735424"/>
+        <c:axId val="124454016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92712320"/>
+        <c:axId val="101735424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -425,7 +469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92714112"/>
+        <c:crossAx val="124454016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -433,7 +477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92714112"/>
+        <c:axId val="124454016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +488,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92712320"/>
+        <c:crossAx val="101735424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -470,16 +514,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -823,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:P21"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1681,7 +1725,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1734,7 +1778,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1787,7 +1831,7 @@
         <v>3438.006363602025</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +1884,7 @@
         <v>3514.6589612008752</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1893,7 +1937,7 @@
         <v>3731.8966287570947</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1946,7 +1990,7 @@
         <v>3792.5163648440048</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1966,324 +2010,464 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>1.6400462962962965E-5</v>
+        <v>5.8599537037037025E-5</v>
       </c>
       <c r="D25">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="F25">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>2.1423611111111112E-5</v>
+        <v>7.1481481481481491E-5</v>
       </c>
       <c r="D26">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="E26">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F26">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>1.7523148148148149E-5</v>
+        <v>4.130787037037037E-5</v>
       </c>
       <c r="D27">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="E27">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="F27">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>7.4077546296296305E-4</v>
+        <v>2.5654166666666668E-3</v>
       </c>
       <c r="D28">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="E28">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="F28">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>1.4004629629629628E-5</v>
+        <v>3.0335648148148146E-5</v>
       </c>
       <c r="D29">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E29">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F29">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>1.722222222222222E-5</v>
+        <v>4.2372685185185188E-5</v>
       </c>
       <c r="D30">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E30">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="F30">
-        <v>115.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="N30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>3367.94865048459</v>
+      </c>
+      <c r="P30" s="2">
+        <v>3558.1732306755798</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>3438.006363602025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>1.5983796296296299E-5</v>
+        <v>2.3622685185185186E-5</v>
       </c>
       <c r="D31">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E31">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F31">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>3433.5381038395599</v>
+      </c>
+      <c r="P31" s="2">
+        <v>3610.6038466923901</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>3514.6589612008752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>7.4490740740740735E-4</v>
+        <v>5.846527777777778E-4</v>
       </c>
       <c r="D32">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E32">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="F32">
-        <v>136.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="N32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="2">
+        <v>3628.7680063490202</v>
+      </c>
+      <c r="P32" s="2">
+        <v>3766.51635526992</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>3731.8966287570947</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>1.3969907407407409E-5</v>
+        <v>1.8946759259259259E-5</v>
       </c>
       <c r="D33">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E33">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F33">
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="N33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="2">
+        <v>3725.3961438791198</v>
+      </c>
+      <c r="P33" s="2">
+        <v>3894.1117742286001</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>3792.5163648440048</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>1.8402777777777778E-5</v>
+        <v>3.1678240740740742E-5</v>
       </c>
       <c r="D34">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E34">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="F34">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>1.8773148148148149E-5</v>
+        <v>1.5196759259259258E-5</v>
       </c>
       <c r="D35">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E35">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="F35">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>4.6652777777777773E-4</v>
+        <v>5.7476851851851851E-4</v>
       </c>
       <c r="D36">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="E36">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="F36">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>1.1666666666666666E-5</v>
+        <v>3.1550925925925926E-5</v>
       </c>
       <c r="D37">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E37">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F37">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>1.6574074074074075E-5</v>
+        <v>4.4629629629629625E-5</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E38">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="F38">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>1.5995370370370375E-5</v>
+        <v>2.5810185185185188E-5</v>
       </c>
       <c r="D39">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E39">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="F39">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>4.6517361111111114E-4</v>
+        <v>3.8777777777777774E-4</v>
       </c>
       <c r="D40">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E40">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="F40">
-        <v>60</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.7893518518518517E-5</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3367.94865048459</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3558.1732306755798</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3438.006363602025</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3.7106481481481482E-5</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3433.5381038395599</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3610.6038466923901</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3514.6589612008752</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.6342592592592595E-5</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3628.7680063490202</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3766.51635526992</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3731.8966287570947</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.729050925925926E-4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3725.3961438791198</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3894.1117742286001</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3792.5163648440048</v>
       </c>
     </row>
   </sheetData>
